--- a/汽柴煤油2.0/eta/山东丙烯主流价_SC指数_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/山东丙烯主流价_SC指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-823.8</v>
+        <v>-602.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-940.6</v>
+        <v>-965.7</v>
       </c>
       <c r="C3" t="n">
-        <v>-671.4</v>
+        <v>-654.2</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-604.1</v>
       </c>
       <c r="C4" t="n">
-        <v>-553.1</v>
+        <v>-572.9</v>
       </c>
     </row>
     <row r="5">
@@ -549,7 +549,7 @@
         <v>-543.6</v>
       </c>
       <c r="C9" t="n">
-        <v>-543.6</v>
+        <v>-543.5</v>
       </c>
     </row>
     <row r="10">
@@ -731,7 +731,7 @@
         <v>-416.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-416.6</v>
+        <v>-416.5</v>
       </c>
     </row>
     <row r="24">
